--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H2">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I2">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J2">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="N2">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="O2">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="P2">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="Q2">
-        <v>256.00680161586</v>
+        <v>79.26864725706045</v>
       </c>
       <c r="R2">
-        <v>2304.06121454274</v>
+        <v>713.417825313544</v>
       </c>
       <c r="S2">
-        <v>0.04159785544296298</v>
+        <v>0.02346196784682217</v>
       </c>
       <c r="T2">
-        <v>0.04159785544296296</v>
+        <v>0.02346196784682217</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H3">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I3">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J3">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>132.842182</v>
       </c>
       <c r="O3">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="P3">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="Q3">
-        <v>766.3340016234101</v>
+        <v>394.0165834415849</v>
       </c>
       <c r="R3">
-        <v>6897.006014610691</v>
+        <v>3546.149250974264</v>
       </c>
       <c r="S3">
-        <v>0.1245195472126202</v>
+        <v>0.1166211955382876</v>
       </c>
       <c r="T3">
-        <v>0.1245195472126202</v>
+        <v>0.1166211955382876</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.306265</v>
+        <v>8.898150666666666</v>
       </c>
       <c r="H4">
-        <v>51.918795</v>
+        <v>26.694452</v>
       </c>
       <c r="I4">
-        <v>0.5463168539988408</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="J4">
-        <v>0.5463168539988407</v>
+        <v>0.3765197173862137</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="N4">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="O4">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="P4">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="Q4">
-        <v>2339.871718818569</v>
+        <v>798.8249715518626</v>
       </c>
       <c r="R4">
-        <v>21058.84546936713</v>
+        <v>7189.424743966764</v>
       </c>
       <c r="S4">
-        <v>0.3801994513432576</v>
+        <v>0.236436554001104</v>
       </c>
       <c r="T4">
-        <v>0.3801994513432575</v>
+        <v>0.236436554001104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>10.03324</v>
       </c>
       <c r="I5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J5">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="N5">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="O5">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="P5">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="Q5">
-        <v>49.47298338192</v>
+        <v>29.7935077448089</v>
       </c>
       <c r="R5">
-        <v>445.25685043728</v>
+        <v>268.14156970328</v>
       </c>
       <c r="S5">
-        <v>0.008038731776123732</v>
+        <v>0.008818295062938549</v>
       </c>
       <c r="T5">
-        <v>0.008038731776123728</v>
+        <v>0.008818295062938551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>10.03324</v>
       </c>
       <c r="I6">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J6">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>132.842182</v>
       </c>
       <c r="O6">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="P6">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="Q6">
         <v>148.0930549032978</v>
@@ -818,10 +818,10 @@
         <v>1332.83749412968</v>
       </c>
       <c r="S6">
-        <v>0.02406324148847348</v>
+        <v>0.04383264522240683</v>
       </c>
       <c r="T6">
-        <v>0.02406324148847347</v>
+        <v>0.04383264522240684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>10.03324</v>
       </c>
       <c r="I7">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465014</v>
       </c>
       <c r="J7">
-        <v>0.1055750256186672</v>
+        <v>0.1415167724465015</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="N7">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="O7">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="P7">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="Q7">
-        <v>452.1771840837065</v>
+        <v>300.2422622338534</v>
       </c>
       <c r="R7">
-        <v>4069.59465675336</v>
+        <v>2702.18036010468</v>
       </c>
       <c r="S7">
-        <v>0.07347305235406996</v>
+        <v>0.08886583216115607</v>
       </c>
       <c r="T7">
-        <v>0.07347305235406995</v>
+        <v>0.08886583216115608</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H8">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I8">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J8">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.792724</v>
+        <v>8.908440666666667</v>
       </c>
       <c r="N8">
-        <v>44.378172</v>
+        <v>26.725322</v>
       </c>
       <c r="O8">
-        <v>0.07614236159562313</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="P8">
-        <v>0.07614236159562311</v>
+        <v>0.06231272032629341</v>
       </c>
       <c r="Q8">
-        <v>163.125200812164</v>
+        <v>101.4677152724965</v>
       </c>
       <c r="R8">
-        <v>1468.126807309476</v>
+        <v>913.2094374524681</v>
       </c>
       <c r="S8">
-        <v>0.02650577437653642</v>
+        <v>0.03003245741653269</v>
       </c>
       <c r="T8">
-        <v>0.02650577437653642</v>
+        <v>0.03003245741653269</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H9">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I9">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J9">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>132.842182</v>
       </c>
       <c r="O9">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="P9">
-        <v>0.2279255093471533</v>
+        <v>0.3097346304939027</v>
       </c>
       <c r="Q9">
-        <v>488.3010416714785</v>
+        <v>504.360347813701</v>
       </c>
       <c r="R9">
-        <v>4394.709375043306</v>
+        <v>4539.243130323309</v>
       </c>
       <c r="S9">
-        <v>0.0793427206460597</v>
+        <v>0.1492807897332083</v>
       </c>
       <c r="T9">
-        <v>0.07934272064605967</v>
+        <v>0.1492807897332083</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.02739433333333</v>
+        <v>11.39006466666667</v>
       </c>
       <c r="H10">
-        <v>33.082183</v>
+        <v>34.170194</v>
       </c>
       <c r="I10">
-        <v>0.3481081203824922</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="J10">
-        <v>0.3481081203824921</v>
+        <v>0.4819635101672848</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.203738</v>
+        <v>89.774269</v>
       </c>
       <c r="N10">
-        <v>405.6112139999999</v>
+        <v>269.322807</v>
       </c>
       <c r="O10">
-        <v>0.6959321290572236</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="P10">
-        <v>0.6959321290572235</v>
+        <v>0.627952649179804</v>
       </c>
       <c r="Q10">
-        <v>1490.944934266684</v>
+        <v>1022.534729312729</v>
       </c>
       <c r="R10">
-        <v>13418.50440840016</v>
+        <v>9202.812563814559</v>
       </c>
       <c r="S10">
-        <v>0.2422596253598961</v>
+        <v>0.3026502630175439</v>
       </c>
       <c r="T10">
-        <v>0.242259625359896</v>
+        <v>0.3026502630175439</v>
       </c>
     </row>
   </sheetData>
